--- a/data_dictionary_e-exam.xlsx
+++ b/data_dictionary_e-exam.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sem 8 Internship\Main Project Of Internship\Spring Tool Suit(STS)\E-Exam\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADEE3B4-9695-47EC-B4E3-623E53F69C13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
   <si>
     <t>Sr No.1</t>
   </si>
@@ -158,9 +167,6 @@
   </si>
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>not included</t>
   </si>
   <si>
     <t>duration</t>
@@ -223,23 +229,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
@@ -249,45 +258,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -477,33 +487,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.86"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,7 +533,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -526,13 +541,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,23 +555,23 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -581,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -595,13 +610,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -609,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -623,13 +638,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -637,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -646,7 +661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -654,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -665,13 +680,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -679,13 +694,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -693,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -707,13 +722,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -721,13 +736,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -735,23 +750,23 @@
         <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -765,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -773,13 +788,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -787,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -801,10 +816,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -812,23 +827,23 @@
         <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -845,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -853,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -867,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -881,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>20</v>
@@ -890,7 +905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -898,13 +913,13 @@
         <v>10</v>
       </c>
       <c r="C43" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -912,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -926,13 +941,13 @@
         <v>10</v>
       </c>
       <c r="C45" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -940,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="C46" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -954,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="C47" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -968,33 +983,33 @@
         <v>10</v>
       </c>
       <c r="C48" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
@@ -1019,113 +1034,94 @@
         <v>7</v>
       </c>
       <c r="C60" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2">
-        <v>3.0</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2">
-        <v>100.0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -1142,21 +1138,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
@@ -1164,16 +1160,16 @@
         <v>7</v>
       </c>
       <c r="C73" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>36</v>
       </c>
@@ -1181,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>20</v>
@@ -1190,17 +1186,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -1217,21 +1213,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>15</v>
       </c>
@@ -1239,33 +1235,33 @@
         <v>7</v>
       </c>
       <c r="C80" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>36</v>
       </c>
@@ -1273,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>20</v>
@@ -1282,32 +1278,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2">
+        <v>100</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -1324,21 +1320,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
@@ -1346,16 +1342,16 @@
         <v>7</v>
       </c>
       <c r="C94" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>47</v>
       </c>
@@ -1363,55 +1359,55 @@
         <v>7</v>
       </c>
       <c r="C95" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="B98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_dictionary_e-exam.xlsx
+++ b/data_dictionary_e-exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sem 8 Internship\Main Project Of Internship\Spring Tool Suit(STS)\E-Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADEE3B4-9695-47EC-B4E3-623E53F69C13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A652EE3-3296-4BF9-A7D5-8A2991A02E85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>Sr No.1</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>isPass</t>
+  </si>
+  <si>
+    <t>examDate</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:F98"/>
+  <dimension ref="A3:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1406,6 +1409,23 @@
       <c r="C98" s="2">
         <v>1</v>
       </c>
+      <c r="D98" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="3">
+        <v>20</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
